--- a/CVX_Kenya/Old Code/Optimization/optimization.xlsx
+++ b/CVX_Kenya/Old Code/Optimization/optimization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Old Code\Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA93AD5-A85D-45E7-A346-F4615C322C3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E213E88-70A7-41E2-80EC-0B55E59C473D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{E06427C0-47F7-42FD-AC5A-4E340D5BBA6E}"/>
+    <workbookView xWindow="-7200" yWindow="4236" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{E06427C0-47F7-42FD-AC5A-4E340D5BBA6E}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="5" r:id="rId1"/>
@@ -1312,6 +1312,18 @@
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="7" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1373,18 +1385,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2640,12 +2640,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D8FC194B-2F05-41FE-BABA-526CC242872E}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{C02AF6E7-52D7-4F88-A079-9F55D9234E90}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2774,12 +2774,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{785F2E7A-173F-4536-9095-6886BE603D76}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{D332068C-93E9-410D-9DB9-D0191D263AC9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2922,12 +2922,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5C256D50-207F-4C24-ABD0-6BE270B265AD}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{D531B7B2-7255-49D2-B803-F8644D1D59FD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4462,12 +4462,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{96275AC1-7945-4A11-8FB2-09FAFAA084E0}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{277951B8-48E2-4479-B5FC-1544F045EA0D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4596,12 +4596,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D9EC913-12DE-4A0C-BBEF-E4E11DB30046}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{E932C20A-46EA-4E71-A9BB-A2F7003FB80B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4744,12 +4744,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E624B66B-805E-4FDD-A9EE-F8F7E59964DA}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{AA0E86A3-DC41-4908-9A69-ADE259732E24}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -5181,12 +5181,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4EDB03E-6EBC-40FA-AA18-D6EBEF78D14B}" type="CELLRANGE">
+                    <a:fld id="{8AF39CFD-9C4C-48B4-BAEE-4B4FDE4EC836}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -5214,12 +5214,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{74890618-BFA1-48E2-849C-3676B4B25577}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{A94D9275-EDF7-4CCC-A70F-2C887A9E0A6D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -5248,12 +5248,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D74F349-C134-443C-854A-3F29268F9C61}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{399A72D0-B523-4336-9361-E94B10F6263F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -5282,12 +5282,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B5277A8-A71F-4C91-9A7B-57811D724706}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{4806AE18-F4C0-4773-999A-73BDCA9399C4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -5316,12 +5316,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AE81415B-1089-4F79-ABFB-F577FB646D07}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{151B1C92-C391-4F70-91D5-8DDDE385D324}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -5350,12 +5350,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1AB8A377-73EA-4AC1-975A-C51E875EA27F}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{8597223C-F2C1-4E92-9EBD-A24380835518}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -5558,12 +5558,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D52696F5-01D8-40DB-A187-715F8424162D}" type="CELLRANGE">
+                    <a:fld id="{245FE839-5AFB-4E0B-84D2-757DC731821C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -5591,12 +5591,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C750EC41-6B3F-4886-AF93-5930E64BC25D}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{20876BAF-7CDF-47F7-8D30-4FD13E3800B1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -5625,12 +5625,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2916AB89-018F-44F2-89DC-F9BDD9ECEED1}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{7465D0AD-BD5D-4644-B0E5-9CB3FA3CB0B4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -5659,12 +5659,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C5FA4C9-BFAC-4FAE-9C7C-D61C65D8A50B}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{FDBF5133-8C89-41D0-94EE-F4FDCC86F8F6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -5693,12 +5693,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A739CF2F-D640-406E-AAAD-261CDA74A2B5}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{9E2F0802-8916-42FB-9DDC-5F7DBBCA75AB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -5727,12 +5727,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{891E9252-9A2F-4308-A54E-CC84128FE524}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{B9C8736C-1929-4D8E-8C25-D7CD0BCFFE18}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -5935,12 +5935,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B3445A5C-1320-4D47-A972-D129DF6F89F7}" type="CELLRANGE">
+                    <a:fld id="{73C1716C-5344-4951-8BDA-1D9F6CE1A21C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -5968,12 +5968,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D1AFC5FC-163B-4FBA-8018-09428AF3D4F0}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{9E91D81C-6AF1-425F-88C7-1DC5A3C20F42}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6002,12 +6002,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{079B5AE4-A294-4E1C-99AF-27BDAB72913E}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{97E9A52A-75AF-42C2-85FD-280076A172B1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6036,12 +6036,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04C148E5-B782-4D83-8C46-81934B502B3A}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{C2E6CEB1-6CBA-4536-A7EF-D470F864AE93}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6070,12 +6070,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2AA0DB36-0952-4482-83B8-B3FFF157B0F3}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{DC54CCD4-B39D-4270-8016-1F20D20607DD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6104,12 +6104,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CEFD27EA-E3E1-4340-A0CD-D6A0DA76A246}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{9B59BF97-C2D2-40DA-9D37-B8649F595284}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6312,12 +6312,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7BDF8F3D-5B7C-4916-9126-9C761BE95BB6}" type="CELLRANGE">
+                    <a:fld id="{847CA07F-9869-4C0F-8EFC-8268E0BC8F1A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6345,12 +6345,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38DF75C4-5EA3-487A-B125-1058F63CD655}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{DCA474D9-9B57-484E-8380-46F836808FD9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6379,12 +6379,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2B5EA658-2C56-4BB4-9A6B-74FB164A17DC}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{A76EE829-76B8-44F2-A35E-625F234DBB70}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6413,12 +6413,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A254B016-983B-4FC1-841B-DDBFA5E21DCA}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{5E4AD2B4-EFDE-4872-ADC5-F7438EC5E2FF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6447,12 +6447,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{62DE883F-81FE-4ED8-B168-50F343A72D57}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{06AE7D3E-44D3-4427-B7D6-E78E10329795}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6481,12 +6481,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C22A7ED0-16AC-4160-B204-0A45B790F4B7}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{DF1AC5A2-FDFC-45FB-873B-530026E1FD96}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -12308,7 +12308,7 @@
   <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12526,11 +12526,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFF4C5D-C6A9-435C-9F9F-B239C36DB161}">
   <dimension ref="A1:AC70"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O36" sqref="O36"/>
+      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18899,7 +18899,7 @@
       <c r="F3" s="67">
         <v>0</v>
       </c>
-      <c r="G3" s="142">
+      <c r="G3" s="121">
         <f>H3/SUM(H3:H6)</f>
         <v>9.4251773189222461E-3</v>
       </c>
@@ -18990,7 +18990,7 @@
       <c r="F4" s="76">
         <v>0</v>
       </c>
-      <c r="G4" s="143">
+      <c r="G4" s="122">
         <v>0</v>
       </c>
       <c r="H4" s="76">
@@ -19080,7 +19080,7 @@
       <c r="F5" s="93">
         <v>0</v>
       </c>
-      <c r="G5" s="144">
+      <c r="G5" s="123">
         <f>H5/SUM(H3:H6)</f>
         <v>0.49080258425172946</v>
       </c>
@@ -19171,7 +19171,7 @@
       <c r="F6" s="106">
         <v>0</v>
       </c>
-      <c r="G6" s="145">
+      <c r="G6" s="124">
         <f>H6/SUM(H3:H6)</f>
         <v>0.49977223842934826</v>
       </c>
@@ -19404,7 +19404,7 @@
       <c r="F9" s="93">
         <v>0</v>
       </c>
-      <c r="G9" s="144">
+      <c r="G9" s="123">
         <f>H9/SUM(H9:H10)</f>
         <v>0.63980372749873937</v>
       </c>
@@ -19495,7 +19495,7 @@
       <c r="F10" s="106">
         <v>0</v>
       </c>
-      <c r="G10" s="145">
+      <c r="G10" s="124">
         <f>H10/SUM(H9:H10)</f>
         <v>0.36019627250126057</v>
       </c>
@@ -22685,16 +22685,16 @@
       <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="139" t="s">
+      <c r="J3" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="140"/>
-      <c r="L3" s="141"/>
-      <c r="Y3" s="121" t="s">
+      <c r="K3" s="144"/>
+      <c r="L3" s="145"/>
+      <c r="Y3" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="123"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="127"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -22819,15 +22819,15 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="124">
+      <c r="F9" s="128">
         <v>1</v>
       </c>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
       <c r="Y9" s="24">
         <v>1</v>
       </c>
@@ -22839,19 +22839,19 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="125" t="s">
+      <c r="A10" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="127"/>
-      <c r="G10" s="128" t="s">
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="131"/>
+      <c r="G10" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="130"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="134"/>
       <c r="K10" s="25" t="s">
         <v>59</v>
       </c>
@@ -22867,24 +22867,24 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="134"/>
-      <c r="E11" s="135"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="139"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="136" t="s">
+      <c r="G11" s="140" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="138"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="142"/>
       <c r="K11" s="28" t="s">
         <v>63</v>
       </c>
@@ -22902,8 +22902,8 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="132"/>
-      <c r="B12" s="132"/>
+      <c r="A12" s="136"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="41" t="str">
         <f>$J$5</f>
         <v>Water Savings</v>
@@ -25972,16 +25972,16 @@
       <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="139" t="s">
+      <c r="J3" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="140"/>
-      <c r="L3" s="141"/>
-      <c r="Y3" s="121" t="s">
+      <c r="K3" s="144"/>
+      <c r="L3" s="145"/>
+      <c r="Y3" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="123"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="127"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -26069,15 +26069,15 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="F9" s="124" t="s">
+      <c r="F9" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
       <c r="Y9" s="24">
         <v>1</v>
       </c>
@@ -26089,19 +26089,19 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="125" t="s">
+      <c r="A10" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="127"/>
-      <c r="G10" s="128" t="s">
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="131"/>
+      <c r="G10" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="130"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="134"/>
       <c r="K10" s="25" t="s">
         <v>59</v>
       </c>
@@ -26117,24 +26117,24 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="134"/>
-      <c r="E11" s="135"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="139"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="136" t="s">
+      <c r="G11" s="140" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="138"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="142"/>
       <c r="K11" s="28" t="s">
         <v>63</v>
       </c>
@@ -26152,8 +26152,8 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="132"/>
-      <c r="B12" s="132"/>
+      <c r="A12" s="136"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="41" t="str">
         <f>$J$5</f>
         <v>Investment Jobs</v>
@@ -29193,8 +29193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDEF338-AA77-4D0B-94D4-50F219292B67}">
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H69"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29227,10 +29227,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="135" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="31" t="s">
@@ -29271,8 +29271,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="132"/>
-      <c r="B7" s="132"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="136"/>
       <c r="C7" s="31" t="s">
         <v>122</v>
       </c>
